--- a/CorreccionesARCA/CorregidosEnARCA.xlsx
+++ b/CorreccionesARCA/CorregidosEnARCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\CorreccionesARCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1790BCAE-87D8-442E-A183-98F3B373EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E847C07-4439-499C-9ADF-9164704C73F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="3135" windowWidth="21600" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="2145" windowWidth="21600" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -33,100 +33,10 @@
     <t>APELLIDO Y NOMBRES</t>
   </si>
   <si>
-    <t>HEREDIA, LARA LORELEY</t>
-  </si>
-  <si>
     <t>NOMBRES</t>
   </si>
   <si>
     <t>TP NRO. 05</t>
-  </si>
-  <si>
-    <t>HEREDIA</t>
-  </si>
-  <si>
-    <t>LARA LORELEY</t>
-  </si>
-  <si>
-    <t>DESAPROBADO</t>
-  </si>
-  <si>
-    <t>MANSILLA, CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t>MANSILLA</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t>APROBADO</t>
-  </si>
-  <si>
-    <t>BAZAN, GONZALO</t>
-  </si>
-  <si>
-    <t>BAZAN</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>ARROYO GUARAZ, KARIN MARIA LUZ</t>
-  </si>
-  <si>
-    <t>ARROYO GUARAZ</t>
-  </si>
-  <si>
-    <t>KARIN MARIA LUZ</t>
-  </si>
-  <si>
-    <t>DE MARCOS ARANZA</t>
-  </si>
-  <si>
-    <t>MOLINA CAMPOS</t>
-  </si>
-  <si>
-    <t>MOLINA CAMPOS, GLADYS ASCENSION</t>
-  </si>
-  <si>
-    <t>GLADYS ASCENSION</t>
-  </si>
-  <si>
-    <t>ANCE, SERGIO ADRIAN</t>
-  </si>
-  <si>
-    <t>ANCE</t>
-  </si>
-  <si>
-    <t>SERGIO ADRIAN</t>
-  </si>
-  <si>
-    <t>ROMERO, JULIETA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>JULIETA</t>
-  </si>
-  <si>
-    <t>LOBO, RICHARD</t>
-  </si>
-  <si>
-    <t>LOBO</t>
-  </si>
-  <si>
-    <t>RICHARD</t>
-  </si>
-  <si>
-    <t>DIAZ, VIRGINIA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
   </si>
 </sst>
 </file>
@@ -142,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +62,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA3DBFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,174 +386,60 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
